--- a/classfiers/chatty/svm/smote/chatty-svm-poly-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5932642487046632</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7447154471544716</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9164230112018227</v>
+        <v>0.9997929606625259</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5325581395348837</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6949924127465857</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7040440478450731</v>
+        <v>0.9995670995670995</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.512249443207127</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6774668630338734</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3991646098348206</v>
+        <v>0.9993572778827977</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5088495575221239</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6744868035190617</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4059426618568445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2709139795198414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5293842777937596</v>
+        <v>0.9866677171274872</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6916656386241319</v>
+        <v>0.9932032290361734</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5392976620516805</v>
+        <v>0.9997434676224847</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/smote/chatty-svm-poly-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997929606625259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9506172839506173</v>
+        <v>0.92</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995670995670995</v>
+        <v>0.9833008175399479</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993572778827977</v>
+        <v>0.999872259383129</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9975903614457832</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9984130318093771</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9866677171274872</v>
+        <v>0.9811336996336996</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9932032290361734</v>
+        <v>0.9902278011567802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997434676224847</v>
+        <v>0.9963172217464908</v>
       </c>
     </row>
   </sheetData>
